--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\SimplieLearnMaster\SwiggyBDD\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC924F88-7C45-498C-A081-7BD61DB69532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{53C885E8-9449-4086-B1FB-DAD11EFADA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="780" windowWidth="28545" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +32,10 @@
     <t>Chicken Biryani</t>
   </si>
   <si>
-    <t>Beef Biryani</t>
+    <t>Beef Fry (Quarter)</t>
   </si>
   <si>
-    <t>Beef Fry (Quarter)</t>
+    <t>Biryani Rice (1 kg)</t>
   </si>
 </sst>
 </file>
@@ -360,7 +356,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +382,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -394,7 +390,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>4</v>
